--- a/rlec 03.xlsx
+++ b/rlec 03.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nayan\Desktop\R Projects\project_01\R-Project01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nayan\Desktop\r project\R-Project01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547CD8A6-9B70-41EB-BE22-7BFDE24CDBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE3A89E-5D2D-4BD1-9E3D-C7A55D37DE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9984" yWindow="2364" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3360" yWindow="11784" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rlec 03" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="17">
   <si>
     <t>rollno</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>S10</t>
+  </si>
+  <si>
+    <t>salary</t>
   </si>
 </sst>
 </file>
@@ -1078,15 +1081,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1082C08B-6334-4707-82B1-411B054749E8}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1099,8 +1102,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1113,8 +1119,11 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1127,8 +1136,11 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1141,8 +1153,11 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1155,8 +1170,11 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1169,8 +1187,11 @@
       <c r="D6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1183,8 +1204,11 @@
       <c r="D7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1197,8 +1221,11 @@
       <c r="D8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1211,8 +1238,11 @@
       <c r="D9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1225,8 +1255,11 @@
       <c r="D10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1238,6 +1271,9 @@
       </c>
       <c r="D11" t="s">
         <v>5</v>
+      </c>
+      <c r="E11">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>
